--- a/docs/ajankäyttö.xlsx
+++ b/docs/ajankäyttö.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
   <si>
     <t>Kurssin aloitusluento</t>
   </si>
@@ -281,9 +281,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="d\.m\.;@"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +311,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +331,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,11 +393,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,12 +427,61 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +527,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$99</c:f>
+              <c:f>Sheet1!$A$2:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\.m\.;@</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>41534</c:v>
                 </c:pt>
@@ -746,16 +824,37 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>41621</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$2:$P$99</c:f>
+              <c:f>Sheet1!$P$2:$P$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1048,6 +1147,27 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
@@ -1066,10 +1186,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$99</c:f>
+              <c:f>Sheet1!$A$2:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\.m\.;@</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>41534</c:v>
                 </c:pt>
@@ -1363,16 +1483,37 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>41621</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$99</c:f>
+              <c:f>Sheet1!$Q$2:$Q$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1666,6 +1807,27 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,10 +1845,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$99</c:f>
+              <c:f>Sheet1!$A$2:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\.m\.;@</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>41534</c:v>
                 </c:pt>
@@ -1980,16 +2142,37 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>41621</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$99</c:f>
+              <c:f>Sheet1!$R$2:$R$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2282,6 +2465,27 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -2300,10 +2504,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$99</c:f>
+              <c:f>Sheet1!$A$2:$A$106</c:f>
               <c:numCache>
                 <c:formatCode>d\.m\.;@</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>41534</c:v>
                 </c:pt>
@@ -2597,16 +2801,37 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>41621</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41622</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$99</c:f>
+              <c:f>Sheet1!$S$2:$S$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2900,6 +3125,27 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,11 +3160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43290624"/>
-        <c:axId val="43280640"/>
+        <c:axId val="109997440"/>
+        <c:axId val="110003328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43290624"/>
+        <c:axId val="109997440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,12 +3174,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43280640"/>
+        <c:crossAx val="110003328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43280640"/>
+        <c:axId val="110003328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43290624"/>
+        <c:crossAx val="109997440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3288,10 +3534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,11 +5697,11 @@
         <v>9</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P99" si="4">$P66+$E67</f>
+        <f t="shared" ref="P67:P106" si="4">$P66+$E67</f>
         <v>27</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q99" si="5">$Q66+$F67</f>
+        <f t="shared" ref="Q67:Q106" si="5">$Q66+$F67</f>
         <v>22</v>
       </c>
       <c r="R67">
@@ -6482,7 +6728,263 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="26">
+        <v>41622</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="R100">
+        <f t="shared" ref="R100:R106" si="8">$R99+G100</f>
+        <v>14</v>
+      </c>
+      <c r="S100">
+        <f t="shared" ref="S100:S106" si="9">$S99+I100</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="26">
+        <v>41622</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="9"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="26">
+        <v>41622</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="9"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="26">
+        <v>41623</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="26">
+        <v>41623</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="26">
+        <v>41623</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="26">
+        <v>41623</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="9"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
+    </row>
+    <row r="108" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="16"/>
+    </row>
+    <row r="110" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="17"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="22"/>
+    </row>
+    <row r="111" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="23"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="25"/>
+    </row>
+    <row r="112" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="23"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="22"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="23"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="25"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
